--- a/test_datas/data.xlsx
+++ b/test_datas/data.xlsx
@@ -78,8 +78,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -92,7 +92,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,28 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,99 +230,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,7 +244,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +316,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,121 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,31 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +435,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,17 +477,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,48 +535,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +555,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1491,6 +1491,7 @@
       <c:valAx>
         <c:axId val="597104200"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2622,6 +2623,7 @@
       <c:valAx>
         <c:axId val="174031351"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3705,6 +3707,7 @@
       <c:valAx>
         <c:axId val="182595291"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4568,6 +4571,7 @@
       <c:valAx>
         <c:axId val="768763385"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5168,6 +5172,7 @@
       <c:valAx>
         <c:axId val="741954048"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8420,15 +8425,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
+      <xdr:rowOff>109855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1625600</xdr:colOff>
+      <xdr:colOff>1746250</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8438,7 +8443,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1092200" y="27736165"/>
+        <a:off x="1212850" y="27713305"/>
         <a:ext cx="8258175" cy="4957445"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8742,8 +8747,8 @@
   <sheetPr/>
   <dimension ref="A1:Q159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H177" sqref="H177"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
